--- a/2020/Others/RBM/RBM'FEB_2020/Final RBM Feb'2020 (SB TEL).xlsx
+++ b/2020/Others/RBM/RBM'FEB_2020/Final RBM Feb'2020 (SB TEL).xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RT BM\2020\02. February 2020\Dealer Pay\Mugdho\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7365"/>
   </bookViews>
@@ -15,11 +10,11 @@
     <sheet name="dpay" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">dpay!$A$1:$G$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">dpay!$A$5:$E$12</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
     <t>DealerName</t>
   </si>
@@ -44,12 +39,6 @@
     <t>Mugdho Corporation</t>
   </si>
   <si>
-    <t>Alapon</t>
-  </si>
-  <si>
-    <t>RET-20435</t>
-  </si>
-  <si>
     <t>AL-Huda Mobile</t>
   </si>
   <si>
@@ -77,12 +66,6 @@
     <t>RET-28691</t>
   </si>
   <si>
-    <t>RR Mobile Center</t>
-  </si>
-  <si>
-    <t>RET-33097</t>
-  </si>
-  <si>
     <t>Rubel Enterprise</t>
   </si>
   <si>
@@ -98,33 +81,40 @@
     <t>Incentive Amount</t>
   </si>
   <si>
-    <t>Mode of payment</t>
-  </si>
-  <si>
     <t>Mobile No.</t>
   </si>
   <si>
-    <t>Feedback</t>
-  </si>
-  <si>
-    <t>dpay</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Frozen</t>
+    <t>Babu Computer Mobile Service &amp; VDO</t>
+  </si>
+  <si>
+    <t>RET-29692</t>
+  </si>
+  <si>
+    <t>Retailer Signature</t>
+  </si>
+  <si>
+    <t>Total=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mugdho Corporation </t>
+  </si>
+  <si>
+    <t>Komola Super Market, Alaipur, Natore.</t>
+  </si>
+  <si>
+    <t>Retailer Back Margin Month of February 2020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="[$-409]dd\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,6 +137,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="25"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -156,7 +174,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -196,9 +214,42 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -208,26 +259,55 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -291,7 +371,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -326,7 +406,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -503,282 +583,347 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="29" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="26.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" style="2" customWidth="1"/>
+    <col min="7" max="27" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="32.25">
       <c r="A1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+    </row>
+    <row r="2" spans="1:6" ht="19.5">
+      <c r="A2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:6" ht="17.25">
+      <c r="A3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+    </row>
+    <row r="4" spans="1:6" ht="17.25">
+      <c r="A4" s="12">
+        <f ca="1">TODAY()</f>
+        <v>43985</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="50.1" customHeight="1">
+      <c r="A6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6">
+        <v>1673274678</v>
+      </c>
+      <c r="E6" s="13">
+        <v>30</v>
+      </c>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" ht="50.1" customHeight="1">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="6">
+        <v>1723656320</v>
+      </c>
+      <c r="E7" s="13">
+        <v>10</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" ht="50.1" customHeight="1">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1711241521</v>
+      </c>
+      <c r="E8" s="13">
+        <v>50</v>
+      </c>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" ht="50.1" customHeight="1">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1711241521</v>
+      </c>
+      <c r="E9" s="13">
+        <v>20</v>
+      </c>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" ht="50.1" customHeight="1">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1711241521</v>
+      </c>
+      <c r="E10" s="13">
+        <v>60</v>
+      </c>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" ht="50.1" customHeight="1">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="6">
+        <v>1729438268</v>
+      </c>
+      <c r="E11" s="13">
+        <v>90</v>
+      </c>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" ht="50.1" customHeight="1">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="6">
+        <v>1729438268</v>
+      </c>
+      <c r="E12" s="13">
+        <v>30</v>
+      </c>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" ht="50.1" customHeight="1">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="6">
+        <v>1704250875</v>
+      </c>
+      <c r="E13" s="13">
+        <v>10</v>
+      </c>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" ht="50.1" customHeight="1">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="6">
+        <v>1711709872</v>
+      </c>
+      <c r="E14" s="13">
+        <v>10</v>
+      </c>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" ht="50.1" customHeight="1">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="6">
+        <v>1737057481</v>
+      </c>
+      <c r="E15" s="13">
+        <v>40</v>
+      </c>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" ht="50.1" customHeight="1">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="6">
+        <v>1737057481</v>
+      </c>
+      <c r="E16" s="13">
+        <v>120</v>
+      </c>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" ht="50.1" customHeight="1">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="6">
+        <v>1737057481</v>
+      </c>
+      <c r="E17" s="13">
+        <v>20</v>
+      </c>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" ht="50.1" customHeight="1">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="6">
+        <v>1712192700</v>
+      </c>
+      <c r="E18" s="13">
+        <v>100</v>
+      </c>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="1:6" ht="50.1" customHeight="1">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="6">
+        <v>1712192700</v>
+      </c>
+      <c r="E19" s="13">
+        <v>20</v>
+      </c>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:6" ht="50.1" customHeight="1">
+      <c r="A20" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="5">
-        <v>1673274678</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="5">
-        <v>1711241521</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="5">
-        <v>1729438268</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="3">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="5">
-        <v>1704250875</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="5">
-        <v>1711709872</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="5">
-        <v>1400436223</v>
-      </c>
-      <c r="F9" s="5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G9" s="3">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="5">
-        <v>1737057481</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="5">
-        <v>1712192700</v>
-      </c>
-      <c r="F11" s="5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G11" s="3">
-        <v>100</v>
-      </c>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="14">
+        <f>SUM(E6:E19)</f>
+        <v>610</v>
+      </c>
+      <c r="F20" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G11"/>
-  <mergeCells count="7">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
+  <autoFilter ref="A5:E12"/>
+  <sortState ref="B3:E16">
+    <sortCondition ref="B3"/>
+  </sortState>
+  <mergeCells count="5">
+    <mergeCell ref="A6:A19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup scale="75" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>